--- a/File.xlsx
+++ b/File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanapfel/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AD3E905-BB75-2842-99A7-ADA784B32A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FEE0CF-34F8-E647-8671-B56FDAAF3544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25180" yWindow="13600" windowWidth="27240" windowHeight="16440" xr2:uid="{94DFDC77-F0B9-9A40-8ADC-7AED5E6C4C8E}"/>
   </bookViews>
@@ -413,23 +413,23 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>3</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
